--- a/secure/26e-Nico.xlsx
+++ b/secure/26e-Nico.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26e-Nico-865355</t>
+    <t>26e-Nico-895488</t>
   </si>
   <si>
-    <t>26e-Nico-1052764</t>
+    <t>26e-Nico-295663</t>
   </si>
   <si>
-    <t>26e-Nico-308595</t>
+    <t>26e-Nico-227646</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F8e909f7"/>
+        <fgColor rgb="F9b4adbf"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:WU503"/>
+  <dimension ref="A1:IJ503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -547,11 +547,14 @@
       </c>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>-0.94</v>
       </c>
       <c r="M17" s="4"/>
+      <c r="CU17" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -1207,11 +1210,14 @@
       </c>
       <c r="M126" s="4"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:223" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>-0.5</v>
       </c>
       <c r="M127" s="4"/>
+      <c r="HO127" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
@@ -2617,14 +2623,11 @@
       </c>
       <c r="M361" s="4"/>
     </row>
-    <row r="362" spans="1:619" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" s="3">
         <v>0.44</v>
       </c>
       <c r="M362" s="4"/>
-      <c r="WU362" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
@@ -2680,14 +2683,11 @@
       </c>
       <c r="M371" s="4"/>
     </row>
-    <row r="372" spans="1:335" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
         <v>0.48</v>
       </c>
       <c r="M372" s="4"/>
-      <c r="LW372" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" s="3">
@@ -2851,14 +2851,11 @@
       </c>
       <c r="M399" s="4"/>
     </row>
-    <row r="400" spans="1:187" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" s="3">
         <v>0.592</v>
       </c>
       <c r="M400" s="4"/>
-      <c r="GE400" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" s="3">
@@ -3124,11 +3121,14 @@
       </c>
       <c r="M444" s="4"/>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:244" x14ac:dyDescent="0.25">
       <c r="A445" s="3">
         <v>0.772</v>
       </c>
       <c r="M445" s="4"/>
+      <c r="IJ445" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446" s="3">
